--- a/testFiles/p1 test.xlsx
+++ b/testFiles/p1 test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="15" documentId="8_{FB76051D-565B-47A8-94C6-5773C55F36E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2751A03E-840B-4C55-85F9-43CB4B552236}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1875" windowWidth="13350" windowHeight="14325" xr2:uid="{3006ECEB-13B4-4BC0-B442-C99A10D46911}"/>
+    <workbookView xWindow="1065" yWindow="840" windowWidth="13350" windowHeight="14325" xr2:uid="{3006ECEB-13B4-4BC0-B442-C99A10D46911}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25819,8 +25819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648C2F4E-2249-4D94-8929-123577949E29}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
